--- a/Formulario de calificación de películas - Depurado.xlsx
+++ b/Formulario de calificación de películas - Depurado.xlsx
@@ -24689,6 +24689,1108 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>The Dirt</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/327331-the-dirt?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>Comedia</t>
+        </is>
+      </c>
+      <c r="H649" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>The Dirt</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/327331-the-dirt?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="H650" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>203.0</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>The Dirt</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/327331-the-dirt?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>Música</t>
+        </is>
+      </c>
+      <c r="H651" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>We are Twisted Fucking Sister!</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/324421-we-are-twisted-fucking-sister?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>Comedia</t>
+        </is>
+      </c>
+      <c r="H652" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>We are Twisted Fucking Sister!</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/324421-we-are-twisted-fucking-sister?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>Música</t>
+        </is>
+      </c>
+      <c r="H653" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>We are Twisted Fucking Sister!</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/324421-we-are-twisted-fucking-sister?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>Documental</t>
+        </is>
+      </c>
+      <c r="H654" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Avengers Endgame</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/299534-avengers-endgame?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>Acción</t>
+        </is>
+      </c>
+      <c r="H655" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Avengers Endgame</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/299534-avengers-endgame?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>Aventura</t>
+        </is>
+      </c>
+      <c r="H656" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>205.0</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Avengers Endgame</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/299534-avengers-endgame?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>Ciencia Ficción</t>
+        </is>
+      </c>
+      <c r="H657" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Pokémon Detective Pikachu</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/447404-detective-pikachu?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>Acción</t>
+        </is>
+      </c>
+      <c r="H658" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Pokémon Detective Pikachu</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/447404-detective-pikachu?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>Aventura</t>
+        </is>
+      </c>
+      <c r="H659" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Pokémon Detective Pikachu</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/447404-detective-pikachu?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>Animación</t>
+        </is>
+      </c>
+      <c r="H660" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Pokémon Detective Pikachu</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/447404-detective-pikachu?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>Ciencia Ficción</t>
+        </is>
+      </c>
+      <c r="H661" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Pokémon Detective Pikachu</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/447404-detective-pikachu?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>Comedia</t>
+        </is>
+      </c>
+      <c r="H662" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Pokémon Detective Pikachu</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/447404-detective-pikachu?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>Misterio</t>
+        </is>
+      </c>
+      <c r="H663" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>206.0</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Pokémon Detective Pikachu</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/447404-detective-pikachu?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>Familia</t>
+        </is>
+      </c>
+      <c r="H664" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Shazam!</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/287947-shazam?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>Acción</t>
+        </is>
+      </c>
+      <c r="H665" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Shazam!</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/287947-shazam?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>Aventura</t>
+        </is>
+      </c>
+      <c r="H666" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Shazam!</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/287947-shazam?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>Fantasía</t>
+        </is>
+      </c>
+      <c r="H667" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>207.0</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Shazam!</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/287947-shazam?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>Comedia</t>
+        </is>
+      </c>
+      <c r="H668" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>XXY</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/11148-xxy?language=es-ES</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="H669" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Mi Obra Maestra</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/535692-mi-obra-maestra?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>Comedia</t>
+        </is>
+      </c>
+      <c r="H670" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Corazón de León</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/222772-coraz-n-de-le-n?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>Comedia</t>
+        </is>
+      </c>
+      <c r="H671" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Corazón de León</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/222772-coraz-n-de-le-n?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
+      <c r="H672" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Corazón de León</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/222772-coraz-n-de-le-n?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
+      <c r="H673" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Pachamama</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/529790-pachamama?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>Aventura</t>
+        </is>
+      </c>
+      <c r="H674" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Pachamama</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/529790-pachamama?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>Fantasía</t>
+        </is>
+      </c>
+      <c r="H675" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Pachamama</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/529790-pachamama?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>Animación</t>
+        </is>
+      </c>
+      <c r="H676" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Pachamama</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>https://www.themoviedb.org/movie/529790-pachamama?language=es-MX</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>25 a 40 años</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>Familia</t>
+        </is>
+      </c>
+      <c r="H677" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="1"/>
